--- a/data/trans_orig/P52_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P52_2-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>36544</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27788</v>
+        <v>27254</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45143</v>
+        <v>44544</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5220762978964344</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3969871578926082</v>
+        <v>0.3893560565353586</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6449170507658119</v>
+        <v>0.6363547878692147</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -763,19 +763,19 @@
         <v>13423</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8689</v>
+        <v>8563</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17576</v>
+        <v>17821</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6246385938688179</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.404349046334269</v>
+        <v>0.39845186953683</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8178784229262548</v>
+        <v>0.8292474421198973</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -784,19 +784,19 @@
         <v>49968</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40538</v>
+        <v>40561</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59451</v>
+        <v>59382</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5461674056026175</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4430975251559847</v>
+        <v>0.4433452527630043</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6498251312966118</v>
+        <v>0.649065033803805</v>
       </c>
     </row>
     <row r="5">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3976</v>
+        <v>4102</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04351653571207018</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1850142268226666</v>
+        <v>0.190895033261987</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4816</v>
+        <v>4833</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01022170514905139</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05264544976541909</v>
+        <v>0.05282504587558904</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>5492</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13344</v>
+        <v>14634</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07845523158290219</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02755233217621214</v>
+        <v>0.02751221867956658</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1906284378618621</v>
+        <v>0.2090586529445811</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -910,19 +910,19 @@
         <v>5492</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1974</v>
+        <v>1865</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13805</v>
+        <v>15303</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06002669099439816</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02157762278726054</v>
+        <v>0.02038708975059843</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1508901473373477</v>
+        <v>0.1672671059824346</v>
       </c>
     </row>
     <row r="7">
@@ -939,19 +939,19 @@
         <v>27962</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19422</v>
+        <v>19962</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36621</v>
+        <v>37037</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3994684705206634</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2774650490687632</v>
+        <v>0.2851841802109196</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5231687085460995</v>
+        <v>0.5291166811829107</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -960,19 +960,19 @@
         <v>7131</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3070</v>
+        <v>2980</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11901</v>
+        <v>12588</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3318448704191119</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1428458686239897</v>
+        <v>0.1386609224735851</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5537934166425029</v>
+        <v>0.5857797186714474</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -981,19 +981,19 @@
         <v>35093</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25839</v>
+        <v>26032</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44772</v>
+        <v>44748</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.383584198253933</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2824297580150744</v>
+        <v>0.2845370100670248</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4893716238527297</v>
+        <v>0.4891172882755072</v>
       </c>
     </row>
     <row r="8">
@@ -1085,19 +1085,19 @@
         <v>165767</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>146931</v>
+        <v>148508</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>185854</v>
+        <v>186960</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4775684367337434</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4233023272551059</v>
+        <v>0.4278446487101772</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.535438194331886</v>
+        <v>0.5386236299578109</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>65</v>
@@ -1106,19 +1106,19 @@
         <v>67014</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>56027</v>
+        <v>56446</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>77566</v>
+        <v>76430</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5864816597991921</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4903230294157466</v>
+        <v>0.493990043093779</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6788217850626586</v>
+        <v>0.6688853300007986</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>221</v>
@@ -1127,19 +1127,19 @@
         <v>232782</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>212623</v>
+        <v>211034</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>257311</v>
+        <v>255080</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5045421965559699</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4608504413648269</v>
+        <v>0.4574042376776793</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5577074482682157</v>
+        <v>0.5528729286349624</v>
       </c>
     </row>
     <row r="10">
@@ -1156,19 +1156,19 @@
         <v>5991</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2794</v>
+        <v>2803</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12404</v>
+        <v>12486</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0172584101790682</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008050503652311431</v>
+        <v>0.00807534787052569</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03573545810083432</v>
+        <v>0.03597020840724258</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1177,19 +1177,19 @@
         <v>4383</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1239</v>
+        <v>1112</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10739</v>
+        <v>9794</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03836099690336478</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01084340788612248</v>
+        <v>0.009731573106609277</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0939835866299988</v>
+        <v>0.08571209603117999</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1198,19 +1198,19 @@
         <v>10374</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5067</v>
+        <v>5192</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18514</v>
+        <v>17998</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02248473706489385</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01098331526188172</v>
+        <v>0.01125248595452391</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0401270917391084</v>
+        <v>0.03900991352048695</v>
       </c>
     </row>
     <row r="11">
@@ -1227,19 +1227,19 @@
         <v>9227</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4783</v>
+        <v>4499</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17608</v>
+        <v>16183</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02658318638643887</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01378079351526774</v>
+        <v>0.01296023957700408</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05072780616092547</v>
+        <v>0.04662254308731662</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1248,19 +1248,19 @@
         <v>5089</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1938</v>
+        <v>1883</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10595</v>
+        <v>11355</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04453443358644359</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01696215085588755</v>
+        <v>0.01648350834424405</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09272328928072915</v>
+        <v>0.09937643398756975</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -1269,19 +1269,19 @@
         <v>14316</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7747</v>
+        <v>7855</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24193</v>
+        <v>22560</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03102904352714039</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01679139348349215</v>
+        <v>0.0170253657504211</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05243666862832779</v>
+        <v>0.04889851384468447</v>
       </c>
     </row>
     <row r="12">
@@ -1298,19 +1298,19 @@
         <v>166122</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>146607</v>
+        <v>145539</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>185416</v>
+        <v>185223</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4785899667007495</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4223689322238454</v>
+        <v>0.4192928604905058</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5341747349627526</v>
+        <v>0.5336184978021311</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>37</v>
@@ -1319,19 +1319,19 @@
         <v>37779</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27432</v>
+        <v>28486</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>47955</v>
+        <v>47713</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3306229097109996</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2400698016445686</v>
+        <v>0.2492939366923168</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4196802077836481</v>
+        <v>0.4175641403356573</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>193</v>
@@ -1340,19 +1340,19 @@
         <v>203901</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>181860</v>
+        <v>181738</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>225786</v>
+        <v>225140</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4419440228519959</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3941711856621561</v>
+        <v>0.3939086020192987</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4893790594876786</v>
+        <v>0.4879799953843844</v>
       </c>
     </row>
     <row r="13">
@@ -1444,19 +1444,19 @@
         <v>34132</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24099</v>
+        <v>25085</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>44561</v>
+        <v>45062</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3277140220210386</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2313833714658393</v>
+        <v>0.2408492243881204</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4278415055884189</v>
+        <v>0.4326527243633658</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1465,19 +1465,19 @@
         <v>24020</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16635</v>
+        <v>16396</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31278</v>
+        <v>30959</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4838293015487166</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3350624913712213</v>
+        <v>0.330267869956185</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6300271768273327</v>
+        <v>0.6235982445648169</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>51</v>
@@ -1486,19 +1486,19 @@
         <v>58153</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>45941</v>
+        <v>45324</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>72376</v>
+        <v>71384</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3781077727419339</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2987095846296309</v>
+        <v>0.2946961052764637</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4705887652221545</v>
+        <v>0.4641411557768889</v>
       </c>
     </row>
     <row r="15">
@@ -1515,19 +1515,19 @@
         <v>2778</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7551</v>
+        <v>7681</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02667647229841921</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.008371717911961276</v>
+        <v>0.008423338291134631</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07249718243384114</v>
+        <v>0.07374609233426876</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4998</v>
+        <v>5065</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01967473825492055</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1006654399279979</v>
+        <v>0.1020209996983144</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -1557,19 +1557,19 @@
         <v>3755</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8866</v>
+        <v>8835</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0244163242778693</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.006145810018877175</v>
+        <v>0.006074097281394299</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05764901286616907</v>
+        <v>0.05744633576467199</v>
       </c>
     </row>
     <row r="16">
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8425</v>
+        <v>9155</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01828412546205865</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08089187686222321</v>
+        <v>0.08789682550920361</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8986</v>
+        <v>10182</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05841449956451654</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1810097260350462</v>
+        <v>0.2051018523189413</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1628,19 +1628,19 @@
         <v>4804</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13304</v>
+        <v>13430</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03123814299944516</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006387097988812846</v>
+        <v>0.006438229607208629</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08649986194225796</v>
+        <v>0.08732474422565388</v>
       </c>
     </row>
     <row r="17">
@@ -1657,19 +1657,19 @@
         <v>65338</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>54652</v>
+        <v>54837</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>75845</v>
+        <v>74624</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6273253802184836</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5247305063864551</v>
+        <v>0.526500794047575</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7282103732405829</v>
+        <v>0.7164889404156294</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -1678,19 +1678,19 @@
         <v>21749</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13877</v>
+        <v>15000</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29436</v>
+        <v>29689</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4380814606318463</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2795148924737157</v>
+        <v>0.3021466328882285</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5929169375088744</v>
+        <v>0.5980214254514216</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>78</v>
@@ -1699,19 +1699,19 @@
         <v>87087</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>73538</v>
+        <v>74110</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>99621</v>
+        <v>101210</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5662377599807517</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4781460591381941</v>
+        <v>0.4818614679561268</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6477366218147258</v>
+        <v>0.6580667097845921</v>
       </c>
     </row>
     <row r="18">
@@ -1803,19 +1803,19 @@
         <v>236444</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>210713</v>
+        <v>212012</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>260553</v>
+        <v>259021</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4536028260553159</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4042390172855154</v>
+        <v>0.4067317171948515</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4998544087334719</v>
+        <v>0.4969152227171637</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>99</v>
@@ -1824,19 +1824,19 @@
         <v>104457</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>91142</v>
+        <v>90846</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>118535</v>
+        <v>118498</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5634165296447579</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4915970449823107</v>
+        <v>0.4900023305529448</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6393457130079698</v>
+        <v>0.6391502326166512</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>319</v>
@@ -1845,19 +1845,19 @@
         <v>340902</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>310284</v>
+        <v>311910</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>369897</v>
+        <v>368240</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4824137871824141</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4390863508009339</v>
+        <v>0.4413870992665572</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5234441298935533</v>
+        <v>0.5211001112813435</v>
       </c>
     </row>
     <row r="20">
@@ -1874,19 +1874,19 @@
         <v>8769</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3929</v>
+        <v>3993</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15655</v>
+        <v>16680</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01682264871890045</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007537823141747013</v>
+        <v>0.007659558849826262</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03003334289097333</v>
+        <v>0.03199974555868624</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1895,19 +1895,19 @@
         <v>6295</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2251</v>
+        <v>2217</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13075</v>
+        <v>13219</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0339548310326838</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01214264339676431</v>
+        <v>0.01195874912204665</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07052286594923962</v>
+        <v>0.07129870593444372</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -1916,19 +1916,19 @@
         <v>15064</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8726</v>
+        <v>8055</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>23965</v>
+        <v>23343</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02131748517856637</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01234798039845785</v>
+        <v>0.01139825850423445</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0339129220084309</v>
+        <v>0.03303279099933083</v>
       </c>
     </row>
     <row r="21">
@@ -1945,19 +1945,19 @@
         <v>16623</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9517</v>
+        <v>9345</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>27313</v>
+        <v>27972</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03189071146966756</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01825841524786595</v>
+        <v>0.0179278768220608</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05239900613559977</v>
+        <v>0.05366253049038423</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -1966,19 +1966,19 @@
         <v>7989</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3064</v>
+        <v>3818</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15713</v>
+        <v>16455</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04308917357343103</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01652465421638309</v>
+        <v>0.02059481542005863</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08475417125922516</v>
+        <v>0.08875361710164507</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>21</v>
@@ -1987,19 +1987,19 @@
         <v>24612</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15178</v>
+        <v>15607</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>37130</v>
+        <v>38614</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03482876424276273</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02147791400898135</v>
+        <v>0.0220858943009037</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05254252512647265</v>
+        <v>0.05464310890903495</v>
       </c>
     </row>
     <row r="22">
@@ -2016,19 +2016,19 @@
         <v>259422</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>236094</v>
+        <v>235114</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>286211</v>
+        <v>283873</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4976838137561161</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4529313151490877</v>
+        <v>0.4510505203799392</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5490778103118851</v>
+        <v>0.54459126371636</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -2037,19 +2037,19 @@
         <v>66659</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>54315</v>
+        <v>53544</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>80826</v>
+        <v>79784</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3595394657491273</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2929609937220004</v>
+        <v>0.2888020419596131</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.435955397698319</v>
+        <v>0.4303320227731487</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>304</v>
@@ -2058,19 +2058,19 @@
         <v>326081</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>298149</v>
+        <v>299215</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>354776</v>
+        <v>354897</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4614399633962568</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4219137354086959</v>
+        <v>0.4234215136062491</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.502047567306139</v>
+        <v>0.5022175164529267</v>
       </c>
     </row>
     <row r="23">
@@ -2401,19 +2401,19 @@
         <v>18989</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12521</v>
+        <v>11578</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26998</v>
+        <v>27300</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3064667223339331</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2020812349797003</v>
+        <v>0.186853515476039</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4357251567985427</v>
+        <v>0.4406042985531193</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2422,19 +2422,19 @@
         <v>4052</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1095</v>
+        <v>977</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7096</v>
+        <v>7180</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4067863648454922</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1099296673120837</v>
+        <v>0.09807059146527676</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7124073864801956</v>
+        <v>0.7207682133429248</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -2443,19 +2443,19 @@
         <v>23041</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15142</v>
+        <v>16070</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31560</v>
+        <v>32436</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3203604373941493</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2105296960350529</v>
+        <v>0.2234338939718436</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4388131558065919</v>
+        <v>0.4509838598099273</v>
       </c>
     </row>
     <row r="5">
@@ -2472,19 +2472,19 @@
         <v>3584</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1069</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10412</v>
+        <v>9438</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05784869325779372</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0172578025625646</v>
+        <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.16803847221659</v>
+        <v>0.1523285912237478</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -2506,19 +2506,19 @@
         <v>3584</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1069</v>
+        <v>1029</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9580</v>
+        <v>9948</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0498369695254546</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0148650200172707</v>
+        <v>0.0143018067813684</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1332006515629948</v>
+        <v>0.1383196019657373</v>
       </c>
     </row>
     <row r="6">
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7107</v>
+        <v>7027</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03287575496221117</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1146983930536535</v>
+        <v>0.1134097231904117</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6217</v>
+        <v>6469</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02832264491916232</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08643803814303616</v>
+        <v>0.08995074764326559</v>
       </c>
     </row>
     <row r="7">
@@ -2598,19 +2598,19 @@
         <v>37351</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29358</v>
+        <v>29654</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45052</v>
+        <v>45157</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.602808829446062</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4738156041541824</v>
+        <v>0.4785962840171601</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7270963695737059</v>
+        <v>0.7288032384676149</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -2619,19 +2619,19 @@
         <v>5909</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2865</v>
+        <v>2781</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8866</v>
+        <v>8984</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5932136351545078</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2875926135198042</v>
+        <v>0.279231786657075</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8900703326879162</v>
+        <v>0.9019294085347233</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -2640,19 +2640,19 @@
         <v>43260</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34949</v>
+        <v>34005</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51471</v>
+        <v>50661</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6014799481612337</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4859256216191359</v>
+        <v>0.4728011096942619</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7156493970680367</v>
+        <v>0.7043830215049578</v>
       </c>
     </row>
     <row r="8">
@@ -2744,19 +2744,19 @@
         <v>125929</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>108434</v>
+        <v>107081</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>148242</v>
+        <v>145374</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3072591972086347</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2645714461831895</v>
+        <v>0.2612719831433918</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.361701538821638</v>
+        <v>0.3547043394621593</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>59</v>
@@ -2765,19 +2765,19 @@
         <v>60287</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>47003</v>
+        <v>48872</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>72827</v>
+        <v>72453</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3890476770136921</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3033183841324662</v>
+        <v>0.3153835843781346</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4699676665309658</v>
+        <v>0.4675541725499223</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>176</v>
@@ -2786,19 +2786,19 @@
         <v>186216</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>161400</v>
+        <v>162636</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>209171</v>
+        <v>209291</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3296987696997836</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2857609458073815</v>
+        <v>0.2879499455179057</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3703403947843869</v>
+        <v>0.3705533607639362</v>
       </c>
     </row>
     <row r="10">
@@ -2815,19 +2815,19 @@
         <v>16067</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8720</v>
+        <v>9350</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25426</v>
+        <v>26265</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03920307454952525</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02127527023735576</v>
+        <v>0.02281465897635169</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06203828342009061</v>
+        <v>0.06408509045827203</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -2836,19 +2836,19 @@
         <v>6073</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2072</v>
+        <v>2063</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13993</v>
+        <v>13792</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03918948182432319</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0133723060052612</v>
+        <v>0.01331149172102114</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09029709186067333</v>
+        <v>0.08900397252454979</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -2857,19 +2857,19 @@
         <v>22140</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13475</v>
+        <v>14197</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33677</v>
+        <v>33277</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0391993452352838</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02385808710905266</v>
+        <v>0.02513570876224</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05962573003974528</v>
+        <v>0.05891815309599061</v>
       </c>
     </row>
     <row r="11">
@@ -2886,19 +2886,19 @@
         <v>9233</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5092</v>
+        <v>4167</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16661</v>
+        <v>17022</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02252889728541468</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01242385396732166</v>
+        <v>0.01016839798110108</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04065107224903038</v>
+        <v>0.04153383673744014</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4668</v>
+        <v>4734</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005986281795157604</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03012494240391018</v>
+        <v>0.03055228806154376</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -2928,19 +2928,19 @@
         <v>10161</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5156</v>
+        <v>4997</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18459</v>
+        <v>19142</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01799024807257197</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.009128276719384182</v>
+        <v>0.008846993694796787</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03268237536435932</v>
+        <v>0.03389087342929333</v>
       </c>
     </row>
     <row r="12">
@@ -2957,19 +2957,19 @@
         <v>258616</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>236625</v>
+        <v>239372</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>278617</v>
+        <v>280163</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6310088309564253</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5773504468691959</v>
+        <v>0.5840528434243216</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6798079469439021</v>
+        <v>0.6835821064374005</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>87</v>
@@ -2978,19 +2978,19 @@
         <v>87673</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>75010</v>
+        <v>75462</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>99953</v>
+        <v>99714</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5657765593668271</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4840562309566618</v>
+        <v>0.4869770121788465</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6450224663333466</v>
+        <v>0.6434794012753091</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>328</v>
@@ -2999,19 +2999,19 @@
         <v>346290</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>322620</v>
+        <v>323382</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>370225</v>
+        <v>369017</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6131116369923606</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5712035457926744</v>
+        <v>0.572552383447914</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6554898928611138</v>
+        <v>0.6533498890424119</v>
       </c>
     </row>
     <row r="13">
@@ -3103,19 +3103,19 @@
         <v>30865</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22436</v>
+        <v>21192</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>41710</v>
+        <v>41434</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2268639581954756</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1649085451163203</v>
+        <v>0.1557616345438153</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3065770177769179</v>
+        <v>0.3045439152118121</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -3124,19 +3124,19 @@
         <v>28201</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20210</v>
+        <v>20247</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37178</v>
+        <v>37093</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3916042952688838</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2806490608034736</v>
+        <v>0.281157164439407</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5162687174430822</v>
+        <v>0.5150853148135628</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>56</v>
@@ -3145,19 +3145,19 @@
         <v>59066</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>47165</v>
+        <v>45018</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>72221</v>
+        <v>71868</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2838817629111502</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2266845337416681</v>
+        <v>0.2163674424979963</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3471064552562644</v>
+        <v>0.3454115076757204</v>
       </c>
     </row>
     <row r="15">
@@ -3174,19 +3174,19 @@
         <v>4708</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1681</v>
+        <v>1038</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11421</v>
+        <v>12091</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0346071583628588</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01235455640203557</v>
+        <v>0.00762908833225143</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08394657859763716</v>
+        <v>0.08887342970733911</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -3195,19 +3195,19 @@
         <v>3949</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1027</v>
+        <v>1002</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10690</v>
+        <v>9083</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05484059290336457</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01426510759270566</v>
+        <v>0.013917585733615</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.148439144182357</v>
+        <v>0.1261292213093698</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>8</v>
@@ -3216,19 +3216,19 @@
         <v>8658</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3846</v>
+        <v>3900</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>17517</v>
+        <v>16409</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04161009425489763</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0184863582813505</v>
+        <v>0.01874646529473359</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08419198187552358</v>
+        <v>0.0788628500400205</v>
       </c>
     </row>
     <row r="16">
@@ -3245,19 +3245,19 @@
         <v>3766</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1078</v>
+        <v>1090</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10587</v>
+        <v>10648</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02767878715664573</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007924206214526474</v>
+        <v>0.008012085310151372</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07781313934182421</v>
+        <v>0.07826465134597194</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7161</v>
+        <v>7879</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02811242041376227</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0994355132798435</v>
+        <v>0.1094044465502377</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -3287,19 +3287,19 @@
         <v>5790</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2033</v>
+        <v>2068</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13360</v>
+        <v>13186</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02782887071730687</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009770461504436176</v>
+        <v>0.009939730936007788</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06420917566281101</v>
+        <v>0.06337430290086321</v>
       </c>
     </row>
     <row r="17">
@@ -3316,19 +3316,19 @@
         <v>96713</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>85720</v>
+        <v>86092</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>107059</v>
+        <v>107207</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7108500962850199</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6300507029956858</v>
+        <v>0.6327864881250382</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7868981612534612</v>
+        <v>0.7879882447761311</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>37</v>
@@ -3337,19 +3337,19 @@
         <v>37839</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>29240</v>
+        <v>29817</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>45639</v>
+        <v>45946</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5254426914139894</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4060321026771455</v>
+        <v>0.4140491102889094</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6337580102722234</v>
+        <v>0.6380264947817039</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>122</v>
@@ -3358,19 +3358,19 @@
         <v>134551</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>120258</v>
+        <v>120926</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>148394</v>
+        <v>150185</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6466792721166452</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5779835089483747</v>
+        <v>0.5811926355882003</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7132081968345909</v>
+        <v>0.7218174551652181</v>
       </c>
     </row>
     <row r="18">
@@ -3462,19 +3462,19 @@
         <v>175783</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>152939</v>
+        <v>154085</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>199694</v>
+        <v>199052</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2891841868558112</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2516021011066998</v>
+        <v>0.2534882915371785</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3285201564317481</v>
+        <v>0.3274632928490686</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>90</v>
@@ -3483,19 +3483,19 @@
         <v>92540</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>77638</v>
+        <v>78626</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>107683</v>
+        <v>107408</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3905704639001935</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3276779971550697</v>
+        <v>0.3318448553540068</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4544851304521412</v>
+        <v>0.4533243536908197</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>253</v>
@@ -3504,19 +3504,19 @@
         <v>268323</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>242839</v>
+        <v>240908</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>297895</v>
+        <v>297803</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3176194262426074</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2874536160182682</v>
+        <v>0.2851671919502957</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3526240733616769</v>
+        <v>0.3525155313359325</v>
       </c>
     </row>
     <row r="20">
@@ -3533,19 +3533,19 @@
         <v>24360</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15475</v>
+        <v>15983</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>36104</v>
+        <v>36054</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04007501990873383</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02545859601479125</v>
+        <v>0.026294507773107</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05939600102059206</v>
+        <v>0.05931294496425858</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -3554,19 +3554,19 @@
         <v>10022</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4831</v>
+        <v>4925</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17566</v>
+        <v>18570</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04229887302053525</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02038888749151902</v>
+        <v>0.02078471448302288</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07414053604847569</v>
+        <v>0.07837421649832632</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>31</v>
@@ -3575,19 +3575,19 @@
         <v>34382</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>23962</v>
+        <v>23557</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>47879</v>
+        <v>48343</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04069873149415346</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0283645670369086</v>
+        <v>0.02788529913680158</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05667496732515789</v>
+        <v>0.05722474865148034</v>
       </c>
     </row>
     <row r="21">
@@ -3604,19 +3604,19 @@
         <v>15036</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8472</v>
+        <v>8463</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>24227</v>
+        <v>24155</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0247362476979431</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0139379689718412</v>
+        <v>0.01392337287894467</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03985564518195596</v>
+        <v>0.03973747187839592</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -3625,19 +3625,19 @@
         <v>2952</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>923</v>
+        <v>939</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8218</v>
+        <v>8001</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01245953641906696</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.003895171868450865</v>
+        <v>0.003963596744328161</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03468263039553975</v>
+        <v>0.033768370836954</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>17</v>
@@ -3646,19 +3646,19 @@
         <v>17988</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>11152</v>
+        <v>11231</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>28703</v>
+        <v>28928</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02129306747400996</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01320107952214522</v>
+        <v>0.01329485567811995</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0339762037440001</v>
+        <v>0.03424223179680976</v>
       </c>
     </row>
     <row r="22">
@@ -3675,19 +3675,19 @@
         <v>392680</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>369016</v>
+        <v>369976</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>418078</v>
+        <v>417634</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6460045455375119</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.607074739833883</v>
+        <v>0.6086537234012512</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6877865057179169</v>
+        <v>0.6870564778656124</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>130</v>
@@ -3696,19 +3696,19 @@
         <v>131421</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>115977</v>
+        <v>117344</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>147683</v>
+        <v>146457</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5546711266602042</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4894866227344372</v>
+        <v>0.4952582983307942</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6233077381587961</v>
+        <v>0.6181332216696502</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>491</v>
@@ -3717,19 +3717,19 @@
         <v>524101</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>491486</v>
+        <v>493891</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>552263</v>
+        <v>551325</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6203887747892293</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.581780810274913</v>
+        <v>0.5846284405030135</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6537248360116961</v>
+        <v>0.6526136322299529</v>
       </c>
     </row>
     <row r="23">
